--- a/AggrFiles/After_STARR.All.agg.xlsx
+++ b/AggrFiles/After_STARR.All.agg.xlsx
@@ -355,20 +355,26 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="104.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
